--- a/src/test/resources/users.xlsx
+++ b/src/test/resources/users.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yharasym\workspace\atqc148\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\atqc148_TFedorovych\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>qwerty</t>
   </si>
@@ -44,16 +44,13 @@
     <t>East</t>
   </si>
   <si>
-    <t>myroslava</t>
-  </si>
-  <si>
-    <t>myroslav</t>
-  </si>
-  <si>
     <t>shram</t>
   </si>
   <si>
     <t>gmail@gmail.com</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -398,7 +395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -427,19 +426,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
